--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.812100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.812100.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC93283B-5589-4439-8377-81DCB4AA75D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A04199B-D042-450F-818D-17D6A805CB3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071035.854" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T073020.942" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.812100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.812100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A04199B-D042-450F-818D-17D6A805CB3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91E07E6-F9C1-4FA7-9629-87027E078065}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T073020.942" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T073449.752" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Do Ty</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>CLOSE HRIS 12/02/24</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>CLOSE HRIS 23/02/24</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1078,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1493,59 +1502,184 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>24001043</v>
+      </c>
+      <c r="D4">
+        <v>1201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45345</v>
+      </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>3055.97</v>
+        <v>1662.53</v>
       </c>
       <c r="H4" s="2">
-        <v>3055.97</v>
+        <v>1662.53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
       </c>
       <c r="L4" s="2">
-        <v>48293499</v>
+        <v>26273000</v>
       </c>
       <c r="N4" s="2">
-        <v>48293499</v>
+        <v>26273000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>15803</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
+        <v>2105659</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4">
+        <v>1206</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4">
+        <v>812100</v>
+      </c>
+      <c r="AZ4">
+        <v>1206.8121000000001</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
-        <v>3055.97</v>
+        <v>4718.5</v>
       </c>
       <c r="H5" s="2">
-        <v>3055.97</v>
+        <v>4718.5</v>
       </c>
       <c r="L5" s="2">
-        <v>48293499</v>
+        <v>74566499</v>
       </c>
       <c r="N5" s="2">
-        <v>48293499</v>
+        <v>74566499</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
-        <v>3055.97</v>
+        <v>4718.5</v>
       </c>
       <c r="H6" s="2">
-        <v>3055.97</v>
+        <v>4718.5</v>
       </c>
       <c r="L6" s="2">
-        <v>48293499</v>
+        <v>74566499</v>
       </c>
       <c r="N6" s="2">
-        <v>48293499</v>
+        <v>74566499</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4718.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4718.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>74566499</v>
+      </c>
+      <c r="N7" s="2">
+        <v>74566499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
